--- a/assets/image/2017-01-20-benchmark-for-some-popular-di-containers/results.xlsx
+++ b/assets/image/2017-01-20-benchmark-for-some-popular-di-containers/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" firstSheet="1" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="results11" sheetId="1" r:id="rId1"/>
@@ -301,7 +301,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -320,12 +320,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>10 iterations, autoload + startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -345,7 +345,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -442,7 +442,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -588,11 +588,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2088228400"/>
-        <c:axId val="-2087838304"/>
+        <c:axId val="-2101756320"/>
+        <c:axId val="-2101752960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2088228400"/>
+        <c:axId val="-2101756320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,7 +620,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -632,7 +632,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2087838304"/>
+        <c:crossAx val="-2101752960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2087838304"/>
+        <c:axId val="-2101752960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088228400"/>
+        <c:crossAx val="-2101756320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -813,7 +813,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -946,7 +945,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1070,11 +1068,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1761014112"/>
-        <c:axId val="1761019168"/>
+        <c:axId val="-2100985152"/>
+        <c:axId val="-2100981840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1761014112"/>
+        <c:axId val="-2100985152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761019168"/>
+        <c:crossAx val="-2100981840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1122,7 +1120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1761019168"/>
+        <c:axId val="-2100981840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1170,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1761014112"/>
+        <c:crossAx val="-2100985152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,7 +1293,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1428,7 +1425,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1552,11 +1548,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1774229984"/>
-        <c:axId val="1776195184"/>
+        <c:axId val="-2101602704"/>
+        <c:axId val="-2101606672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1774229984"/>
+        <c:axId val="-2101602704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1592,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1776195184"/>
+        <c:crossAx val="-2101606672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1604,7 +1600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1776195184"/>
+        <c:axId val="-2101606672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1650,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1774229984"/>
+        <c:crossAx val="-2101602704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1777,7 +1773,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1910,7 +1905,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2034,11 +2028,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1776650576"/>
-        <c:axId val="1776575728"/>
+        <c:axId val="-2101527104"/>
+        <c:axId val="-2101523792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1776650576"/>
+        <c:axId val="-2101527104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1776575728"/>
+        <c:crossAx val="-2101523792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2086,7 +2080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1776575728"/>
+        <c:axId val="-2101523792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,7 +2130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1776650576"/>
+        <c:crossAx val="-2101527104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2259,7 +2253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2392,7 +2385,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2516,11 +2508,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1776032688"/>
-        <c:axId val="1775803232"/>
+        <c:axId val="-2101480656"/>
+        <c:axId val="-2101477344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1776032688"/>
+        <c:axId val="-2101480656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1775803232"/>
+        <c:crossAx val="-2101477344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2568,7 +2560,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1775803232"/>
+        <c:axId val="-2101477344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,7 +2610,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1776032688"/>
+        <c:crossAx val="-2101480656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2741,7 +2733,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2874,7 +2865,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2998,11 +2988,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1802393040"/>
-        <c:axId val="1802396352"/>
+        <c:axId val="-2101434288"/>
+        <c:axId val="-2101430976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1802393040"/>
+        <c:axId val="-2101434288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3032,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1802396352"/>
+        <c:crossAx val="-2101430976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3050,7 +3040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1802396352"/>
+        <c:axId val="-2101430976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +3090,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1802393040"/>
+        <c:crossAx val="-2101434288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3223,7 +3213,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3356,7 +3345,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3480,11 +3468,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1800511568"/>
-        <c:axId val="1800463952"/>
+        <c:axId val="-2101387920"/>
+        <c:axId val="-2101384608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1800511568"/>
+        <c:axId val="-2101387920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3512,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800463952"/>
+        <c:crossAx val="-2101384608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3532,7 +3520,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1800463952"/>
+        <c:axId val="-2101384608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3570,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1800511568"/>
+        <c:crossAx val="-2101387920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,7 +3693,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3838,7 +3825,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3962,11 +3948,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1828918048"/>
-        <c:axId val="1828921360"/>
+        <c:axId val="-2102160128"/>
+        <c:axId val="-2102163456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1828918048"/>
+        <c:axId val="-2102160128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +3992,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828921360"/>
+        <c:crossAx val="-2102163456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4014,7 +4000,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1828921360"/>
+        <c:axId val="-2102163456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4064,7 +4050,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1828918048"/>
+        <c:crossAx val="-2102160128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4187,7 +4173,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4320,7 +4305,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4444,11 +4428,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1798824672"/>
-        <c:axId val="1798483264"/>
+        <c:axId val="-2102206688"/>
+        <c:axId val="-2102210016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1798824672"/>
+        <c:axId val="-2102206688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4488,7 +4472,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1798483264"/>
+        <c:crossAx val="-2102210016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4496,7 +4480,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1798483264"/>
+        <c:axId val="-2102210016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +4530,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1798824672"/>
+        <c:crossAx val="-2102206688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4926,11 +4910,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1797803728"/>
-        <c:axId val="1830113648"/>
+        <c:axId val="-2102253424"/>
+        <c:axId val="-2102256752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1797803728"/>
+        <c:axId val="-2102253424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4970,7 +4954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1830113648"/>
+        <c:crossAx val="-2102256752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4978,7 +4962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1830113648"/>
+        <c:axId val="-2102256752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,7 +5012,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1797803728"/>
+        <c:crossAx val="-2102253424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5151,7 +5135,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5284,7 +5267,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5408,11 +5390,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1760483408"/>
-        <c:axId val="1759616512"/>
+        <c:axId val="-2102299808"/>
+        <c:axId val="-2102303136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1760483408"/>
+        <c:axId val="-2102299808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1759616512"/>
+        <c:crossAx val="-2102303136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5460,7 +5442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1759616512"/>
+        <c:axId val="-2102303136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5510,7 +5492,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1760483408"/>
+        <c:crossAx val="-2102299808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5591,7 +5573,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -5610,12 +5592,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>100 iterations, autoload + startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -5635,7 +5617,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -5732,7 +5714,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -5878,11 +5860,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2042770864"/>
-        <c:axId val="-2088735808"/>
+        <c:axId val="-2103357168"/>
+        <c:axId val="2121596448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2042770864"/>
+        <c:axId val="-2103357168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5910,7 +5892,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -5922,7 +5904,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2088735808"/>
+        <c:crossAx val="2121596448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5930,7 +5912,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2088735808"/>
+        <c:axId val="2121596448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5980,7 +5962,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2042770864"/>
+        <c:crossAx val="-2103357168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6204,7 +6186,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -6350,11 +6332,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2025993248"/>
-        <c:axId val="-2025989968"/>
+        <c:axId val="-2101624688"/>
+        <c:axId val="-2101621376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2025993248"/>
+        <c:axId val="-2101624688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6382,7 +6364,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -6394,7 +6376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025989968"/>
+        <c:crossAx val="-2101621376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6402,7 +6384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2025989968"/>
+        <c:axId val="-2101621376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6452,7 +6434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2025993248"/>
+        <c:crossAx val="-2101624688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6563,7 +6545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6696,7 +6677,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6820,11 +6800,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2041077136"/>
-        <c:axId val="-2027211024"/>
+        <c:axId val="-2101637008"/>
+        <c:axId val="-2101645136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2041077136"/>
+        <c:axId val="-2101637008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6864,7 +6844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2027211024"/>
+        <c:crossAx val="-2101645136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6872,7 +6852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2027211024"/>
+        <c:axId val="-2101645136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6922,7 +6902,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041077136"/>
+        <c:crossAx val="-2101637008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7033,7 +7013,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7166,7 +7145,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7290,11 +7268,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2023027904"/>
-        <c:axId val="-2085134512"/>
+        <c:axId val="-2101075776"/>
+        <c:axId val="-2101088704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2023027904"/>
+        <c:axId val="-2101075776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7334,7 +7312,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085134512"/>
+        <c:crossAx val="-2101088704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7342,7 +7320,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085134512"/>
+        <c:axId val="-2101088704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7392,7 +7370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2023027904"/>
+        <c:crossAx val="-2101075776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7503,7 +7481,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7636,7 +7613,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7760,11 +7736,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1799877664"/>
-        <c:axId val="1796994432"/>
+        <c:axId val="-2136948896"/>
+        <c:axId val="-2101040848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1799877664"/>
+        <c:axId val="-2136948896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7804,7 +7780,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1796994432"/>
+        <c:crossAx val="-2101040848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7812,7 +7788,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1796994432"/>
+        <c:axId val="-2101040848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7862,7 +7838,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1799877664"/>
+        <c:crossAx val="-2136948896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7968,7 +7944,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8099,7 +8074,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8223,11 +8197,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2092924432"/>
-        <c:axId val="-2092821440"/>
+        <c:axId val="-2100991600"/>
+        <c:axId val="2121595104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2092924432"/>
+        <c:axId val="-2100991600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8267,7 +8241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092821440"/>
+        <c:crossAx val="2121595104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8275,7 +8249,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2092821440"/>
+        <c:axId val="2121595104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8325,7 +8299,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2092924432"/>
+        <c:crossAx val="-2100991600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8448,7 +8422,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8581,7 +8554,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8705,11 +8677,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2041508896"/>
-        <c:axId val="-2041036848"/>
+        <c:axId val="-2100012352"/>
+        <c:axId val="-2100009040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2041508896"/>
+        <c:axId val="-2100012352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8749,7 +8721,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041036848"/>
+        <c:crossAx val="-2100009040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8757,7 +8729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2041036848"/>
+        <c:axId val="-2100009040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8807,7 +8779,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2041508896"/>
+        <c:crossAx val="-2100012352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8930,7 +8902,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9063,7 +9034,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9187,11 +9157,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="1772514672"/>
-        <c:axId val="1772517968"/>
+        <c:axId val="-2099965808"/>
+        <c:axId val="-2099962496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1772514672"/>
+        <c:axId val="-2099965808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9231,7 +9201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772517968"/>
+        <c:crossAx val="-2099962496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9239,7 +9209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1772517968"/>
+        <c:axId val="-2099962496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9289,7 +9259,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1772514672"/>
+        <c:crossAx val="-2099965808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19543,8 +19513,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19911,8 +19881,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19948,8 +19918,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -20495,7 +20465,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -20540,7 +20510,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -20580,7 +20550,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -20700,7 +20670,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -20740,7 +20710,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -20820,7 +20790,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -20880,7 +20850,7 @@
         <v>1.19</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -20900,7 +20870,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -20980,7 +20950,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -21000,7 +20970,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -21060,7 +21030,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -21120,7 +21090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -21180,7 +21150,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -21200,7 +21170,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -21280,7 +21250,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -21300,7 +21270,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -21360,7 +21330,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -21420,7 +21390,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -21480,7 +21450,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -21500,7 +21470,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -21580,7 +21550,7 @@
         <v>1.29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -21600,7 +21570,7 @@
         <v>1.1200000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -21660,7 +21630,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -21740,7 +21710,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -21760,7 +21730,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -21780,7 +21750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -21820,7 +21790,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -21860,7 +21830,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -21900,7 +21870,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -21920,7 +21890,7 @@
         <v>1.17</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -21940,7 +21910,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -22040,7 +22010,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -22060,7 +22030,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -22120,7 +22090,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -22160,7 +22130,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -22220,7 +22190,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -22240,7 +22210,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -22340,7 +22310,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -22360,7 +22330,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -22380,7 +22350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -22420,7 +22390,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -22460,7 +22430,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -22500,7 +22470,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -22520,7 +22490,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -22540,7 +22510,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -22640,7 +22610,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -22660,7 +22630,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -22720,7 +22690,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -22760,7 +22730,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -22820,7 +22790,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -22840,7 +22810,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -22894,7 +22864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -22940,7 +22910,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -22960,7 +22930,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -23020,7 +22990,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -23060,7 +23030,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -23120,7 +23090,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -23140,7 +23110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -23240,7 +23210,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -23260,7 +23230,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -23320,7 +23290,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -23360,7 +23330,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -23420,7 +23390,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -23440,7 +23410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -23495,7 +23465,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23560,7 +23530,7 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -23720,7 +23690,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -23794,8 +23764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23840,7 +23810,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -23880,7 +23850,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -23920,7 +23890,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>8</v>
       </c>
@@ -23960,7 +23930,7 @@
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>6</v>
       </c>
@@ -24000,7 +23970,7 @@
         <v>1.18</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -24040,7 +24010,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -24158,7 +24128,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -24198,7 +24168,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -24278,7 +24248,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -24318,7 +24288,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -24458,7 +24428,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -24478,7 +24448,7 @@
         <v>1.38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -24498,7 +24468,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -24578,7 +24548,7 @@
         <v>1.08</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -24598,7 +24568,7 @@
         <v>1.04</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -24618,7 +24588,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -24738,7 +24708,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>12</v>
       </c>
@@ -24758,7 +24728,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -24798,7 +24768,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -24878,7 +24848,7 @@
         <v>1.24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -24918,7 +24888,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -24938,7 +24908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>2</v>
       </c>
@@ -25018,7 +24988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -25058,7 +25028,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>11</v>
       </c>
@@ -25098,7 +25068,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -25178,7 +25148,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -25218,7 +25188,7 @@
         <v>1.42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>3</v>
       </c>
@@ -25258,7 +25228,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -25318,7 +25288,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -25378,7 +25348,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -25398,7 +25368,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -25478,7 +25448,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -25498,7 +25468,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -25558,7 +25528,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>
@@ -25618,7 +25588,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="50" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>13</v>
       </c>
@@ -25678,7 +25648,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>10</v>
       </c>
@@ -25698,7 +25668,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>9</v>
       </c>
@@ -25778,7 +25748,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="97" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>5</v>
       </c>
@@ -25798,7 +25768,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>4</v>
       </c>
@@ -25858,7 +25828,7 @@
         <v>0.99</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>1</v>
       </c>

--- a/assets/image/2017-01-20-benchmark-for-some-popular-di-containers/results.xlsx
+++ b/assets/image/2017-01-20-benchmark-for-some-popular-di-containers/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" firstSheet="1" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="results11" sheetId="1" r:id="rId1"/>
@@ -771,7 +771,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -790,29 +790,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>1000 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -826,7 +827,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -923,7 +924,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -945,6 +946,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1100,7 +1102,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1251,7 +1253,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -1270,29 +1272,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>10 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1306,7 +1309,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -1403,7 +1406,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1425,6 +1428,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1580,7 +1584,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -1731,7 +1735,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -1750,29 +1754,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>100 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1786,7 +1791,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -1883,7 +1888,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -1905,6 +1910,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2060,7 +2066,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -2211,7 +2217,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -2230,29 +2236,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>1000 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2266,7 +2273,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -2363,7 +2370,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -2385,6 +2392,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2540,7 +2548,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -2691,7 +2699,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -2710,29 +2718,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>100 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> bootstrap time excluded </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>(ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2746,7 +2755,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -2843,7 +2852,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -2865,6 +2874,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3020,7 +3030,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -3171,7 +3181,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -3190,29 +3200,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>1000 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> bootstrap time excluded </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>(ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3226,7 +3237,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -3323,7 +3334,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -3345,6 +3356,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3500,7 +3512,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -3651,7 +3663,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -3670,29 +3682,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>10 000 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> bootstrap time excluded </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>(ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3706,7 +3719,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -3803,7 +3816,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -3825,6 +3838,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3980,7 +3994,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -4131,7 +4145,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -4150,29 +4164,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>100 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> bootstrap time excluded </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>(ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4186,7 +4201,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -4283,7 +4298,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -4305,6 +4320,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4460,7 +4476,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -4611,7 +4627,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -4630,24 +4646,24 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>1000 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> bootstrap time excluded </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>(ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -4667,7 +4683,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -4691,7 +4707,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.258317790354331"/>
+          <c:y val="0.0898663803388213"/>
+          <c:w val="0.712490772637795"/>
+          <c:h val="0.871455780594271"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="stacked"/>
@@ -4764,7 +4790,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -4942,7 +4968,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -5093,7 +5119,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -5112,29 +5138,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>10 000 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> bootstrap time excluded </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>(ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5148,7 +5175,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -5245,7 +5272,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -5267,6 +5294,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5422,7 +5450,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -6515,7 +6543,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -6534,17 +6562,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>10 iterations, autoload + startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6558,7 +6587,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -6655,7 +6684,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -6677,6 +6706,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6832,7 +6862,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -7013,6 +7043,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7145,6 +7176,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7451,7 +7483,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -7470,17 +7502,18 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>100 iterations, autoload + startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7494,7 +7527,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -7591,7 +7624,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -7613,6 +7646,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7768,7 +7802,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -7919,7 +7953,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1920" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -7938,12 +7972,13 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2400"/>
               <a:t>1000 iterations, autoload + startup time included (ms)</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7957,7 +7992,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1920" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -8052,7 +8087,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -8074,6 +8109,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8229,7 +8265,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -8380,7 +8416,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -8399,29 +8435,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>10 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8435,7 +8472,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -8532,7 +8569,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -8554,6 +8591,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8709,7 +8747,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -8860,7 +8898,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="lt1">
                     <a:lumMod val="95000"/>
@@ -8879,29 +8917,30 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>100 iterations,</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t> </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8915,7 +8954,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="lt1">
                   <a:lumMod val="95000"/>
@@ -9012,7 +9051,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="r">
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="bg1"/>
                     </a:solidFill>
@@ -9034,6 +9073,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9189,7 +9229,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -19548,8 +19588,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19585,8 +19625,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19622,8 +19662,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19659,8 +19699,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19696,8 +19736,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19733,8 +19773,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19770,8 +19810,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19807,8 +19847,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19844,8 +19884,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -19955,8 +19995,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -20024,8 +20064,8 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
@@ -20061,8 +20101,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -20098,8 +20138,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -20135,8 +20175,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -20172,8 +20212,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>698500</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -20765,7 +20805,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F14"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21065,7 +21105,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21365,7 +21405,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21665,7 +21705,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T3" sqref="T3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21965,7 +22005,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22565,7 +22605,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22865,7 +22905,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23164,8 +23204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23764,7 +23804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -24064,7 +24104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -24363,7 +24405,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24663,7 +24705,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24963,7 +25005,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25263,7 +25305,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25563,7 +25605,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/image/2017-01-20-benchmark-for-some-popular-di-containers/results.xlsx
+++ b/assets/image/2017-01-20-benchmark-for-some-popular-di-containers/results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" firstSheet="1" activeTab="17"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="results11" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -464,7 +463,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -588,11 +586,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101756320"/>
-        <c:axId val="-2101752960"/>
+        <c:axId val="2146100848"/>
+        <c:axId val="2146104000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101756320"/>
+        <c:axId val="2146100848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -632,7 +630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101752960"/>
+        <c:crossAx val="2146104000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -640,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101752960"/>
+        <c:axId val="2146104000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -690,7 +688,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101756320"/>
+        <c:crossAx val="2146100848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -813,7 +811,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -946,7 +943,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1070,11 +1066,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2100985152"/>
-        <c:axId val="-2100981840"/>
+        <c:axId val="-2118457888"/>
+        <c:axId val="-2118454576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100985152"/>
+        <c:axId val="-2118457888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1110,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100981840"/>
+        <c:crossAx val="-2118454576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1122,7 +1118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100981840"/>
+        <c:axId val="-2118454576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1172,7 +1168,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100985152"/>
+        <c:crossAx val="-2118457888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1295,7 +1291,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1428,7 +1423,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1552,11 +1546,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101602704"/>
-        <c:axId val="-2101606672"/>
+        <c:axId val="-2118412864"/>
+        <c:axId val="-2118409552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101602704"/>
+        <c:axId val="-2118412864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1590,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101606672"/>
+        <c:crossAx val="-2118409552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1604,7 +1598,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101606672"/>
+        <c:axId val="-2118409552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1654,7 +1648,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101602704"/>
+        <c:crossAx val="-2118412864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1777,7 +1771,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1910,7 +1903,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2034,11 +2026,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101527104"/>
-        <c:axId val="-2101523792"/>
+        <c:axId val="-2121040160"/>
+        <c:axId val="2122294848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101527104"/>
+        <c:axId val="-2121040160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2078,7 +2070,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101523792"/>
+        <c:crossAx val="2122294848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2086,7 +2078,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101523792"/>
+        <c:axId val="2122294848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2136,7 +2128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101527104"/>
+        <c:crossAx val="-2121040160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2259,7 +2251,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2392,7 +2383,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2516,11 +2506,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101480656"/>
-        <c:axId val="-2101477344"/>
+        <c:axId val="-2120949456"/>
+        <c:axId val="-2120946144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101480656"/>
+        <c:axId val="-2120949456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101477344"/>
+        <c:crossAx val="-2120946144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2568,7 +2558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101477344"/>
+        <c:axId val="-2120946144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2618,7 +2608,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101480656"/>
+        <c:crossAx val="-2120949456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2741,7 +2731,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2874,7 +2863,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2998,11 +2986,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101434288"/>
-        <c:axId val="-2101430976"/>
+        <c:axId val="2146287888"/>
+        <c:axId val="2146291200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101434288"/>
+        <c:axId val="2146287888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3042,7 +3030,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101430976"/>
+        <c:crossAx val="2146291200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3050,7 +3038,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101430976"/>
+        <c:axId val="2146291200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +3088,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101434288"/>
+        <c:crossAx val="2146287888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3223,7 +3211,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3356,7 +3343,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3480,11 +3466,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101387920"/>
-        <c:axId val="-2101384608"/>
+        <c:axId val="-2118368112"/>
+        <c:axId val="-2118364800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101387920"/>
+        <c:axId val="-2118368112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3524,7 +3510,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101384608"/>
+        <c:crossAx val="-2118364800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3532,7 +3518,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101384608"/>
+        <c:axId val="-2118364800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3582,7 +3568,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101387920"/>
+        <c:crossAx val="-2118368112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3705,7 +3691,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3838,7 +3823,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3962,11 +3946,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2102160128"/>
-        <c:axId val="-2102163456"/>
+        <c:axId val="-2120982512"/>
+        <c:axId val="-2120969264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102160128"/>
+        <c:axId val="-2120982512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,7 +3990,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102163456"/>
+        <c:crossAx val="-2120969264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4014,7 +3998,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102163456"/>
+        <c:axId val="-2120969264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4064,7 +4048,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102160128"/>
+        <c:crossAx val="-2120982512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4187,7 +4171,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4320,7 +4303,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4444,11 +4426,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2102206688"/>
-        <c:axId val="-2102210016"/>
+        <c:axId val="-2117952608"/>
+        <c:axId val="-2117949296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102206688"/>
+        <c:axId val="-2117952608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4488,7 +4470,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102210016"/>
+        <c:crossAx val="-2117949296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4496,7 +4478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102210016"/>
+        <c:axId val="-2117949296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4546,7 +4528,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102206688"/>
+        <c:crossAx val="-2117952608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4669,7 +4651,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4812,7 +4793,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4936,11 +4916,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2102253424"/>
-        <c:axId val="-2102256752"/>
+        <c:axId val="-2117891600"/>
+        <c:axId val="-2117888288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102253424"/>
+        <c:axId val="-2117891600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4980,7 +4960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102256752"/>
+        <c:crossAx val="-2117888288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4988,7 +4968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102256752"/>
+        <c:axId val="-2117888288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5038,7 +5018,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102253424"/>
+        <c:crossAx val="-2117891600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5418,11 +5398,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2102299808"/>
-        <c:axId val="-2102303136"/>
+        <c:axId val="-2117845264"/>
+        <c:axId val="-2117841952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2102299808"/>
+        <c:axId val="-2117845264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5462,7 +5442,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102303136"/>
+        <c:crossAx val="-2117841952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5470,7 +5450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2102303136"/>
+        <c:axId val="-2117841952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5520,7 +5500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102299808"/>
+        <c:crossAx val="-2117845264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5631,7 +5611,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5764,7 +5743,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5888,11 +5866,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2103357168"/>
-        <c:axId val="2121596448"/>
+        <c:axId val="2146129296"/>
+        <c:axId val="2146132608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2103357168"/>
+        <c:axId val="2146129296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,7 +5910,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121596448"/>
+        <c:crossAx val="2146132608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5940,7 +5918,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121596448"/>
+        <c:axId val="2146132608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5990,7 +5968,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2103357168"/>
+        <c:crossAx val="2146129296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6071,7 +6049,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -6088,7 +6066,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="2000" b="1" i="0">
+              <a:rPr lang="en-US" sz="2400" b="1" i="0">
                 <a:solidFill>
                   <a:schemeClr val="bg1"/>
                 </a:solidFill>
@@ -6096,7 +6074,7 @@
               </a:rPr>
               <a:t>1000 iterations, autoload + startup time included (ms)</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="2000">
+            <a:endParaRPr lang="en-US" sz="2400">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -6119,7 +6097,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+            <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
@@ -6360,11 +6338,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101624688"/>
-        <c:axId val="-2101621376"/>
+        <c:axId val="2146167760"/>
+        <c:axId val="2146171072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101624688"/>
+        <c:axId val="2146167760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6404,7 +6382,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101621376"/>
+        <c:crossAx val="2146171072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6412,7 +6390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101621376"/>
+        <c:axId val="2146171072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6462,7 +6440,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101624688"/>
+        <c:crossAx val="2146167760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6573,7 +6551,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6706,7 +6683,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6830,11 +6806,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101637008"/>
-        <c:axId val="-2101645136"/>
+        <c:axId val="2146214592"/>
+        <c:axId val="2146217904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101637008"/>
+        <c:axId val="2146214592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6874,7 +6850,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101645136"/>
+        <c:crossAx val="2146217904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6882,7 +6858,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101645136"/>
+        <c:axId val="2146217904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6932,7 +6908,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101637008"/>
+        <c:crossAx val="2146214592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7043,7 +7019,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7176,7 +7151,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7300,11 +7274,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2101075776"/>
-        <c:axId val="-2101088704"/>
+        <c:axId val="-2118644160"/>
+        <c:axId val="-2118640848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2101075776"/>
+        <c:axId val="-2118644160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7344,7 +7318,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101088704"/>
+        <c:crossAx val="-2118640848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7352,7 +7326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101088704"/>
+        <c:axId val="-2118640848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7402,7 +7376,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101075776"/>
+        <c:crossAx val="-2118644160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7513,7 +7487,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7646,7 +7619,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7770,11 +7742,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2136948896"/>
-        <c:axId val="-2101040848"/>
+        <c:axId val="-2118596048"/>
+        <c:axId val="-2118592736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2136948896"/>
+        <c:axId val="-2118596048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7814,7 +7786,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2101040848"/>
+        <c:crossAx val="-2118592736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7822,7 +7794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2101040848"/>
+        <c:axId val="-2118592736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7872,7 +7844,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2136948896"/>
+        <c:crossAx val="-2118596048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7978,7 +7950,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8109,7 +8080,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8233,11 +8203,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2100991600"/>
-        <c:axId val="2121595104"/>
+        <c:axId val="-2117968912"/>
+        <c:axId val="-2117965600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100991600"/>
+        <c:axId val="-2117968912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8277,7 +8247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2121595104"/>
+        <c:crossAx val="-2117965600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8285,7 +8255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121595104"/>
+        <c:axId val="-2117965600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8335,7 +8305,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100991600"/>
+        <c:crossAx val="-2117968912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8458,7 +8428,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8591,7 +8560,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8715,11 +8683,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2100012352"/>
-        <c:axId val="-2100009040"/>
+        <c:axId val="-2118550048"/>
+        <c:axId val="-2118546736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2100012352"/>
+        <c:axId val="-2118550048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8759,7 +8727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100009040"/>
+        <c:crossAx val="-2118546736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8767,7 +8735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100009040"/>
+        <c:axId val="-2118546736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8817,7 +8785,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2100012352"/>
+        <c:crossAx val="-2118550048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8940,7 +8908,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9073,7 +9040,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9197,11 +9163,11 @@
         </c:dLbls>
         <c:gapWidth val="55"/>
         <c:overlap val="100"/>
-        <c:axId val="-2099965808"/>
-        <c:axId val="-2099962496"/>
+        <c:axId val="-2118503568"/>
+        <c:axId val="-2118500256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2099965808"/>
+        <c:axId val="-2118503568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9241,7 +9207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099962496"/>
+        <c:crossAx val="-2118500256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9249,7 +9215,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2099962496"/>
+        <c:axId val="-2118500256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9299,7 +9265,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2099965808"/>
+        <c:crossAx val="-2118503568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -23204,7 +23170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -23804,8 +23770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
